--- a/DATA_goal/Junction_Flooding_369.xlsx
+++ b/DATA_goal/Junction_Flooding_369.xlsx
@@ -446,7 +446,7 @@
     <col width="6" customWidth="1" min="2" max="2"/>
     <col width="6" customWidth="1" min="3" max="3"/>
     <col width="6" customWidth="1" min="4" max="4"/>
-    <col width="6" customWidth="1" min="5" max="5"/>
+    <col width="7" customWidth="1" min="5" max="5"/>
     <col width="7" customWidth="1" min="6" max="6"/>
     <col width="6" customWidth="1" min="7" max="7"/>
     <col width="7" customWidth="1" min="8" max="8"/>
@@ -655,103 +655,103 @@
         <v>40751.42361111111</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>0.72</v>
+        <v>7.2</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>0.5600000000000001</v>
+        <v>5.61</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>0.12</v>
+        <v>1.19</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>1.56</v>
+        <v>15.61</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>1.24</v>
+        <v>12.37</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>0.48</v>
+        <v>4.79</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>1.48</v>
+        <v>14.8</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>0.9</v>
+        <v>8.960000000000001</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>0.44</v>
+        <v>4.43</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>0.5600000000000001</v>
+        <v>5.63</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>0.62</v>
+        <v>6.25</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>0.73</v>
+        <v>7.31</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>0.28</v>
+        <v>2.79</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>0.6</v>
+        <v>6.02</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>0.77</v>
+        <v>7.74</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>0.51</v>
+        <v>5.14</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>0.05</v>
+        <v>0.49</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>0.09</v>
+        <v>0.93</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>8.41</v>
+        <v>84.14</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>1.64</v>
+        <v>16.42</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>0.5600000000000001</v>
+        <v>5.55</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>1.02</v>
+        <v>10.17</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>0.63</v>
+        <v>6.28</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>0.09</v>
+        <v>0.89</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>0.97</v>
+        <v>9.74</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>0.44</v>
+        <v>4.36</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>0.49</v>
+        <v>4.88</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>0.61</v>
+        <v>6.06</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>0.8100000000000001</v>
+        <v>8.130000000000001</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>0.15</v>
+        <v>1.52</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>1.32</v>
+        <v>13.18</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>0.36</v>
+        <v>3.63</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>0.64</v>
+        <v>6.39</v>
       </c>
     </row>
     <row r="3">
@@ -759,103 +759,103 @@
         <v>40751.43055555555</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>0.93</v>
+        <v>9.33</v>
       </c>
       <c r="C3" s="4" t="n">
+        <v>7.06</v>
+      </c>
+      <c r="D3" s="4" t="n">
         <v>0.71</v>
       </c>
-      <c r="D3" s="4" t="n">
-        <v>0.07000000000000001</v>
-      </c>
       <c r="E3" s="4" t="n">
-        <v>2.05</v>
+        <v>20.53</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>1.65</v>
+        <v>16.45</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>0.68</v>
+        <v>6.8</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>2.65</v>
+        <v>26.47</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>1.14</v>
+        <v>11.4</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>0.5600000000000001</v>
+        <v>5.55</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>0.73</v>
+        <v>7.34</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>0.82</v>
+        <v>8.18</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>0.9</v>
+        <v>9.039999999999999</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>0.29</v>
+        <v>2.94</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>0.75</v>
+        <v>7.52</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>1.03</v>
+        <v>10.27</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>0.64</v>
+        <v>6.43</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>0.02</v>
+        <v>0.23</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.06</v>
+        <v>0.63</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>10.71</v>
+        <v>107.11</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>2.1</v>
+        <v>20.99</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>0.6899999999999999</v>
+        <v>6.94</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>1.37</v>
+        <v>13.69</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>0.77</v>
+        <v>7.69</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>0.1</v>
+        <v>1.02</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>1.45</v>
+        <v>14.52</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>0.58</v>
+        <v>5.83</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>0.58</v>
+        <v>5.78</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>0.6899999999999999</v>
+        <v>6.88</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>0.93</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.71</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>2.45</v>
+        <v>24.51</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>0.42</v>
+        <v>4.23</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>0.84</v>
+        <v>8.369999999999999</v>
       </c>
     </row>
     <row r="4">
@@ -863,16 +863,16 @@
         <v>40751.4375</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>0.03</v>
+        <v>0.28</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>0.02</v>
+        <v>0.23</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.03</v>
+        <v>0.26</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>0.08</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="F4" s="4" t="n">
         <v>0</v>
@@ -881,85 +881,85 @@
         <v>0</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>0.66</v>
+        <v>6.56</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>0.04</v>
+        <v>0.41</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.71</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>0.01</v>
+        <v>0.05</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>0.03</v>
+        <v>0.26</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>0.01</v>
+        <v>0.05</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>0.04</v>
+        <v>0.38</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>0.04</v>
+        <v>0.42</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>0.05</v>
+        <v>0.48</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.01</v>
+        <v>0.08</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.02</v>
+        <v>0.24</v>
       </c>
       <c r="T4" s="4" t="n">
         <v>0</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>0.16</v>
+        <v>1.57</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>0.03</v>
+        <v>0.35</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>0.09</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.73</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>0.01</v>
+        <v>0.06</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>0.38</v>
+        <v>3.79</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>0.01</v>
+        <v>0.1</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>0.06</v>
+        <v>0.6</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.7</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.74</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.04</v>
+        <v>0.44</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>0.68</v>
+        <v>6.82</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>0.04</v>
+        <v>0.39</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>0.03</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="5">
@@ -967,103 +967,103 @@
         <v>40751.44444444445</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>0.66</v>
+        <v>6.57</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>0.49</v>
+        <v>4.94</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.04</v>
+        <v>0.4</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>1.45</v>
+        <v>14.48</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>1.14</v>
+        <v>11.42</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>0.55</v>
+        <v>5.46</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>1.76</v>
+        <v>17.62</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>0.8</v>
+        <v>8.01</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>0.38</v>
+        <v>3.84</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>0.52</v>
+        <v>5.17</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>0.58</v>
+        <v>5.76</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>0.59</v>
+        <v>5.95</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>0.16</v>
+        <v>1.6</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>0.53</v>
+        <v>5.26</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>0.72</v>
+        <v>7.18</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>0.45</v>
+        <v>4.5</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.01</v>
+        <v>0.1</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.04</v>
+        <v>0.37</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>7.32</v>
+        <v>73.18000000000001</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>1.45</v>
+        <v>14.5</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>0.49</v>
+        <v>4.86</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>0.95</v>
+        <v>9.48</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>0.53</v>
+        <v>5.33</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.7</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>0.92</v>
+        <v>9.210000000000001</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>0.41</v>
+        <v>4.13</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>0.4</v>
+        <v>4.01</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>0.47</v>
+        <v>4.73</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>0.64</v>
+        <v>6.39</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.03</v>
+        <v>0.32</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>1.59</v>
+        <v>15.85</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>0.29</v>
+        <v>2.92</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>0.59</v>
+        <v>5.91</v>
       </c>
     </row>
     <row r="6">

--- a/DATA_goal/Junction_Flooding_369.xlsx
+++ b/DATA_goal/Junction_Flooding_369.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,39 +443,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="6" customWidth="1" min="2" max="2"/>
-    <col width="6" customWidth="1" min="3" max="3"/>
-    <col width="6" customWidth="1" min="4" max="4"/>
-    <col width="7" customWidth="1" min="5" max="5"/>
-    <col width="7" customWidth="1" min="6" max="6"/>
-    <col width="6" customWidth="1" min="7" max="7"/>
-    <col width="7" customWidth="1" min="8" max="8"/>
-    <col width="7" customWidth="1" min="9" max="9"/>
-    <col width="6" customWidth="1" min="10" max="10"/>
-    <col width="6" customWidth="1" min="11" max="11"/>
-    <col width="6" customWidth="1" min="12" max="12"/>
-    <col width="6" customWidth="1" min="13" max="13"/>
-    <col width="6" customWidth="1" min="14" max="14"/>
-    <col width="6" customWidth="1" min="15" max="15"/>
-    <col width="7" customWidth="1" min="16" max="16"/>
-    <col width="6" customWidth="1" min="17" max="17"/>
-    <col width="6" customWidth="1" min="18" max="18"/>
-    <col width="6" customWidth="1" min="19" max="19"/>
-    <col width="8" customWidth="1" min="20" max="20"/>
-    <col width="7" customWidth="1" min="21" max="21"/>
-    <col width="6" customWidth="1" min="22" max="22"/>
-    <col width="7" customWidth="1" min="23" max="23"/>
-    <col width="6" customWidth="1" min="24" max="24"/>
-    <col width="6" customWidth="1" min="25" max="25"/>
-    <col width="7" customWidth="1" min="26" max="26"/>
-    <col width="6" customWidth="1" min="27" max="27"/>
-    <col width="6" customWidth="1" min="28" max="28"/>
-    <col width="6" customWidth="1" min="29" max="29"/>
-    <col width="6" customWidth="1" min="30" max="30"/>
-    <col width="6" customWidth="1" min="31" max="31"/>
-    <col width="7" customWidth="1" min="32" max="32"/>
-    <col width="6" customWidth="1" min="33" max="33"/>
-    <col width="6" customWidth="1" min="34" max="34"/>
+    <col width="8" customWidth="1" min="2" max="2"/>
+    <col width="8" customWidth="1" min="3" max="3"/>
+    <col width="7" customWidth="1" min="4" max="4"/>
+    <col width="8" customWidth="1" min="5" max="5"/>
+    <col width="8" customWidth="1" min="6" max="6"/>
+    <col width="8" customWidth="1" min="7" max="7"/>
+    <col width="8" customWidth="1" min="8" max="8"/>
+    <col width="8" customWidth="1" min="9" max="9"/>
+    <col width="7" customWidth="1" min="10" max="10"/>
+    <col width="8" customWidth="1" min="11" max="11"/>
+    <col width="8" customWidth="1" min="12" max="12"/>
+    <col width="8" customWidth="1" min="13" max="13"/>
+    <col width="7" customWidth="1" min="14" max="14"/>
+    <col width="7" customWidth="1" min="15" max="15"/>
+    <col width="8" customWidth="1" min="16" max="16"/>
+    <col width="7" customWidth="1" min="17" max="17"/>
+    <col width="7" customWidth="1" min="18" max="18"/>
+    <col width="7" customWidth="1" min="19" max="19"/>
+    <col width="9" customWidth="1" min="20" max="20"/>
+    <col width="8" customWidth="1" min="21" max="21"/>
+    <col width="7" customWidth="1" min="22" max="22"/>
+    <col width="8" customWidth="1" min="23" max="23"/>
+    <col width="8" customWidth="1" min="24" max="24"/>
+    <col width="7" customWidth="1" min="25" max="25"/>
+    <col width="8" customWidth="1" min="26" max="26"/>
+    <col width="8" customWidth="1" min="27" max="27"/>
+    <col width="8" customWidth="1" min="28" max="28"/>
+    <col width="8" customWidth="1" min="29" max="29"/>
+    <col width="8" customWidth="1" min="30" max="30"/>
+    <col width="7" customWidth="1" min="31" max="31"/>
+    <col width="8" customWidth="1" min="32" max="32"/>
+    <col width="7" customWidth="1" min="33" max="33"/>
+    <col width="8" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -652,522 +652,418 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>40751.42361111111</v>
+        <v>45050.50694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>7.2</v>
+        <v>22.58</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>5.61</v>
+        <v>15.542</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>1.19</v>
+        <v>4.221</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>15.61</v>
+        <v>47.493</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>12.37</v>
+        <v>39.284</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>4.79</v>
+        <v>17.769</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>14.8</v>
+        <v>58.8</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>8.960000000000001</v>
+        <v>27.341</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>4.43</v>
+        <v>11.61</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>5.63</v>
+        <v>17.881</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>6.25</v>
+        <v>18.828</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>7.31</v>
+        <v>19.728</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>2.79</v>
+        <v>5.673</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>6.02</v>
+        <v>17.67</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>7.74</v>
+        <v>24.849</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>5.14</v>
+        <v>14.79</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>0.49</v>
+        <v>3.779</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>0.93</v>
+        <v>2.46</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>84.14</v>
+        <v>261.617</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>16.42</v>
+        <v>49.202</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>5.55</v>
+        <v>16.31</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>10.17</v>
+        <v>32.642</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>6.28</v>
+        <v>17.025</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>0.89</v>
+        <v>2.109</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>9.74</v>
+        <v>29.266</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>4.36</v>
+        <v>14.407</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>4.88</v>
+        <v>12.944</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>6.06</v>
+        <v>15.145</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>8.130000000000001</v>
+        <v>19.485</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>1.52</v>
+        <v>3.64</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>13.18</v>
+        <v>51.902</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>3.63</v>
+        <v>9.071</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>6.39</v>
+        <v>20.391</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>40751.43055555555</v>
+        <v>45050.51388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>9.33</v>
+        <v>11.53</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>7.06</v>
+        <v>7.975</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0.71</v>
+        <v>1.653</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>20.53</v>
+        <v>24.437</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>16.45</v>
+        <v>20.228</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>6.8</v>
+        <v>9.074</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>26.47</v>
+        <v>37.778</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>11.4</v>
+        <v>13.961</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>5.55</v>
+        <v>5.962</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>7.34</v>
+        <v>9.044</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>8.18</v>
+        <v>9.839</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>9.039999999999999</v>
+        <v>10.209</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>2.94</v>
+        <v>2.901</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>7.52</v>
+        <v>9.023</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>10.27</v>
+        <v>12.69</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>6.43</v>
+        <v>7.794</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>0.23</v>
+        <v>1.582</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.63</v>
+        <v>0.916</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>107.11</v>
+        <v>130.032</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>20.99</v>
+        <v>25.348</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>6.94</v>
+        <v>8.329000000000001</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>13.69</v>
+        <v>16.716</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>7.69</v>
+        <v>8.962999999999999</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>1.02</v>
+        <v>1.025</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>14.52</v>
+        <v>17.826</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>5.83</v>
+        <v>7.357</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>5.78</v>
+        <v>6.717</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>6.88</v>
+        <v>7.851</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>9.300000000000001</v>
+        <v>10.212</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>0.71</v>
+        <v>1.294</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>24.51</v>
+        <v>34.195</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>4.23</v>
+        <v>4.578</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>8.369999999999999</v>
+        <v>10.413</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>40751.4375</v>
+        <v>45050.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>0.28</v>
+        <v>12.491</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>0.23</v>
+        <v>8.930999999999999</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.26</v>
+        <v>1.192</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>0.8100000000000001</v>
+        <v>26.753</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>0</v>
+        <v>22.136</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>0</v>
+        <v>9.83</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>6.56</v>
+        <v>38.568</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>0.41</v>
+        <v>15.125</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>0.71</v>
+        <v>6.58</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>0.05</v>
+        <v>9.897</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>0.26</v>
+        <v>10.818</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>0.05</v>
+        <v>11.258</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>0.02</v>
+        <v>3.14</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>0.38</v>
+        <v>9.775</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>0.42</v>
+        <v>13.807</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>0.48</v>
+        <v>8.375</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.08</v>
+        <v>1.05</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.24</v>
+        <v>0.695</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>0</v>
+        <v>141.456</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>1.57</v>
+        <v>27.338</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>0.35</v>
+        <v>9.023</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>0.9399999999999999</v>
+        <v>18.179</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>0.73</v>
+        <v>9.766999999999999</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>0.06</v>
+        <v>1.154</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>3.79</v>
+        <v>18.432</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>0.1</v>
+        <v>7.97</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>0.6</v>
+        <v>7.183</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>0.7</v>
+        <v>8.417999999999999</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>0.74</v>
+        <v>11.28</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.44</v>
+        <v>0.784</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>6.82</v>
+        <v>34.723</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>0.39</v>
+        <v>5.01</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>0.25</v>
+        <v>11.28</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>40751.44444444445</v>
+        <v>45050.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>6.57</v>
+        <v>14.89</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>4.94</v>
+        <v>10.85</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.4</v>
+        <v>1.06</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>14.48</v>
+        <v>32.08</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>11.42</v>
+        <v>26.54</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>5.46</v>
+        <v>11.72</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>17.62</v>
+        <v>45.27</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>8.01</v>
+        <v>18.03</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>3.84</v>
+        <v>7.94</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>5.17</v>
+        <v>11.89</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>5.76</v>
+        <v>12.97</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>5.95</v>
+        <v>13.55</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>1.6</v>
+        <v>3.74</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>5.26</v>
+        <v>11.65</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>7.18</v>
+        <v>16.53</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>4.5</v>
+        <v>9.890000000000001</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.1</v>
+        <v>0.82</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.37</v>
+        <v>0.66</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>73.18000000000001</v>
+        <v>170.07</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>14.5</v>
+        <v>32.58</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>4.86</v>
+        <v>10.76</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>9.48</v>
+        <v>21.81</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>5.33</v>
+        <v>11.65</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.7</v>
+        <v>1.42</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>9.210000000000001</v>
+        <v>21.89</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>4.13</v>
+        <v>9.5</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>4.01</v>
+        <v>8.48</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>4.73</v>
+        <v>9.960000000000001</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>6.39</v>
+        <v>13.56</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.32</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>15.85</v>
+        <v>40.87</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>2.92</v>
+        <v>6.02</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>5.91</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>40751.45137731481</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>9.49</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>7.12</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>0.46</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>20.8</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>16.73</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>7.77</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>27.48</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>11.52</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>5.42</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>7.55</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>8.31</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>8.68</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>2.37</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>7.52</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>10.52</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>6.35</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.42</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>107.38</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>20.98</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>6.94</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>13.97</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>7.58</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>0.99</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>14.11</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>6</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>5.59</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>6.57</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>8.98</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0.26</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>25.07</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>4.08</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>8.550000000000001</v>
+        <v>13.45</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_369.xlsx
+++ b/DATA_goal/Junction_Flooding_369.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH5"/>
+  <dimension ref="A1:AH6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,21 +443,21 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="8" customWidth="1" min="2" max="2"/>
-    <col width="8" customWidth="1" min="3" max="3"/>
+    <col width="7" customWidth="1" min="2" max="2"/>
+    <col width="7" customWidth="1" min="3" max="3"/>
     <col width="7" customWidth="1" min="4" max="4"/>
     <col width="8" customWidth="1" min="5" max="5"/>
     <col width="8" customWidth="1" min="6" max="6"/>
-    <col width="8" customWidth="1" min="7" max="7"/>
+    <col width="7" customWidth="1" min="7" max="7"/>
     <col width="8" customWidth="1" min="8" max="8"/>
     <col width="8" customWidth="1" min="9" max="9"/>
     <col width="7" customWidth="1" min="10" max="10"/>
-    <col width="8" customWidth="1" min="11" max="11"/>
-    <col width="8" customWidth="1" min="12" max="12"/>
-    <col width="8" customWidth="1" min="13" max="13"/>
+    <col width="7" customWidth="1" min="11" max="11"/>
+    <col width="7" customWidth="1" min="12" max="12"/>
+    <col width="7" customWidth="1" min="13" max="13"/>
     <col width="7" customWidth="1" min="14" max="14"/>
     <col width="7" customWidth="1" min="15" max="15"/>
-    <col width="8" customWidth="1" min="16" max="16"/>
+    <col width="7" customWidth="1" min="16" max="16"/>
     <col width="7" customWidth="1" min="17" max="17"/>
     <col width="7" customWidth="1" min="18" max="18"/>
     <col width="7" customWidth="1" min="19" max="19"/>
@@ -465,17 +465,17 @@
     <col width="8" customWidth="1" min="21" max="21"/>
     <col width="7" customWidth="1" min="22" max="22"/>
     <col width="8" customWidth="1" min="23" max="23"/>
-    <col width="8" customWidth="1" min="24" max="24"/>
+    <col width="7" customWidth="1" min="24" max="24"/>
     <col width="7" customWidth="1" min="25" max="25"/>
     <col width="8" customWidth="1" min="26" max="26"/>
-    <col width="8" customWidth="1" min="27" max="27"/>
-    <col width="8" customWidth="1" min="28" max="28"/>
-    <col width="8" customWidth="1" min="29" max="29"/>
-    <col width="8" customWidth="1" min="30" max="30"/>
+    <col width="7" customWidth="1" min="27" max="27"/>
+    <col width="7" customWidth="1" min="28" max="28"/>
+    <col width="7" customWidth="1" min="29" max="29"/>
+    <col width="7" customWidth="1" min="30" max="30"/>
     <col width="7" customWidth="1" min="31" max="31"/>
     <col width="8" customWidth="1" min="32" max="32"/>
     <col width="7" customWidth="1" min="33" max="33"/>
-    <col width="8" customWidth="1" min="34" max="34"/>
+    <col width="7" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -652,418 +652,522 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>45050.50694444445</v>
+        <v>40751.42361111111</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>22.58</v>
+        <v>7.205</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>15.542</v>
+        <v>5.605</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>4.221</v>
+        <v>1.192</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>47.493</v>
+        <v>15.61</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>39.284</v>
+        <v>12.374</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>17.769</v>
+        <v>4.794</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>58.8</v>
+        <v>14.798</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>27.341</v>
+        <v>8.957000000000001</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>11.61</v>
+        <v>4.429</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>17.881</v>
+        <v>5.631</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>18.828</v>
+        <v>6.249</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>19.728</v>
+        <v>7.306</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>5.673</v>
+        <v>2.788</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>17.67</v>
+        <v>6.015</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>24.849</v>
+        <v>7.738</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>14.79</v>
+        <v>5.138</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>3.779</v>
+        <v>0.492</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>2.46</v>
+        <v>0.931</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>261.617</v>
+        <v>84.14</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>49.202</v>
+        <v>16.424</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>16.31</v>
+        <v>5.552</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>32.642</v>
+        <v>10.174</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>17.025</v>
+        <v>6.283</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>2.109</v>
+        <v>0.894</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>29.266</v>
+        <v>9.741</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>14.407</v>
+        <v>4.361</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>12.944</v>
+        <v>4.885</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>15.145</v>
+        <v>6.06</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>19.485</v>
+        <v>8.134</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>3.64</v>
+        <v>1.522</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>51.902</v>
+        <v>13.18</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>9.071</v>
+        <v>3.625</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>20.391</v>
+        <v>6.387</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>45050.51388888889</v>
+        <v>40751.43055555555</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>11.53</v>
+        <v>9.329000000000001</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>7.975</v>
+        <v>7.061</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>1.653</v>
+        <v>0.711</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>24.437</v>
+        <v>20.532</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>20.228</v>
+        <v>16.455</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>9.074</v>
+        <v>6.801</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>37.778</v>
+        <v>26.466</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>13.961</v>
+        <v>11.405</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>5.962</v>
+        <v>5.552</v>
       </c>
       <c r="K3" s="4" t="n">
+        <v>7.337</v>
+      </c>
+      <c r="L3" s="4" t="n">
+        <v>8.183</v>
+      </c>
+      <c r="M3" s="4" t="n">
         <v>9.044</v>
       </c>
-      <c r="L3" s="4" t="n">
-        <v>9.839</v>
-      </c>
-      <c r="M3" s="4" t="n">
-        <v>10.209</v>
-      </c>
       <c r="N3" s="4" t="n">
-        <v>2.901</v>
+        <v>2.939</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>9.023</v>
+        <v>7.519</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>12.69</v>
+        <v>10.27</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>7.794</v>
+        <v>6.432</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>1.582</v>
+        <v>0.227</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.916</v>
+        <v>0.632</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>130.032</v>
+        <v>107.111</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>25.348</v>
+        <v>20.992</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>8.329000000000001</v>
+        <v>6.941</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>16.716</v>
+        <v>13.689</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>8.962999999999999</v>
+        <v>7.694</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>1.025</v>
+        <v>1.016</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>17.826</v>
+        <v>14.516</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>7.357</v>
+        <v>5.831</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>6.717</v>
+        <v>5.782</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>7.851</v>
+        <v>6.881</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>10.212</v>
+        <v>9.302</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>1.294</v>
+        <v>0.707</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>34.195</v>
+        <v>24.515</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>4.578</v>
+        <v>4.234</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>10.413</v>
+        <v>8.375</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>45050.52083333334</v>
+        <v>40751.4375</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>12.491</v>
+        <v>0.284</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>8.930999999999999</v>
+        <v>0.229</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>1.192</v>
+        <v>0.261</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>26.753</v>
+        <v>0.8129999999999999</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>22.136</v>
+        <v>0</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>9.83</v>
+        <v>0</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>38.568</v>
+        <v>6.559</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>15.125</v>
+        <v>0.411</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>6.58</v>
+        <v>0.714</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>9.897</v>
+        <v>0.053</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>10.818</v>
+        <v>0.261</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>11.258</v>
+        <v>0.051</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>3.14</v>
+        <v>0.017</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>9.775</v>
+        <v>0.376</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>13.807</v>
+        <v>0.425</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>8.375</v>
+        <v>0.477</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>1.05</v>
+        <v>0.078</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.695</v>
+        <v>0.243</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>141.456</v>
+        <v>0</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>27.338</v>
+        <v>1.569</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>9.023</v>
+        <v>0.347</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>18.179</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>9.766999999999999</v>
+        <v>0.735</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>1.154</v>
+        <v>0.063</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>18.432</v>
+        <v>3.789</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>7.97</v>
+        <v>0.101</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>7.183</v>
+        <v>0.599</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>8.417999999999999</v>
+        <v>0.702</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>11.28</v>
+        <v>0.74</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.784</v>
+        <v>0.436</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>34.723</v>
+        <v>6.815</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>5.01</v>
+        <v>0.393</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>11.28</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>45050.52777777778</v>
+        <v>40751.44444444445</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>14.89</v>
+        <v>6.574</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>10.85</v>
+        <v>4.941</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>1.06</v>
+        <v>0.404</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>32.08</v>
+        <v>14.481</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>26.54</v>
+        <v>11.424</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>11.72</v>
+        <v>5.463</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>45.27</v>
+        <v>17.617</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>18.03</v>
+        <v>8.009</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>7.94</v>
+        <v>3.837</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>11.89</v>
+        <v>5.174</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>12.97</v>
+        <v>5.759</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>13.55</v>
+        <v>5.946</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>3.74</v>
+        <v>1.605</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>11.65</v>
+        <v>5.263</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>16.53</v>
+        <v>7.182</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>9.890000000000001</v>
+        <v>4.502</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.82</v>
+        <v>0.102</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.66</v>
+        <v>0.369</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>170.07</v>
+        <v>73.175</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>32.58</v>
+        <v>14.498</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>10.76</v>
+        <v>4.858</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>21.81</v>
+        <v>9.475</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>11.65</v>
+        <v>5.326</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>1.42</v>
+        <v>0.698</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>21.89</v>
+        <v>9.210000000000001</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>9.5</v>
+        <v>4.134</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>8.48</v>
+        <v>4.012</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>9.960000000000001</v>
+        <v>4.728</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>13.56</v>
+        <v>6.387</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.324</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>40.87</v>
+        <v>15.853</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>6.02</v>
+        <v>2.922</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>13.45</v>
+        <v>5.914</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="n">
+        <v>40751.45137731481</v>
+      </c>
+      <c r="B6" s="4" t="n">
+        <v>9.49</v>
+      </c>
+      <c r="C6" s="4" t="n">
+        <v>7.12</v>
+      </c>
+      <c r="D6" s="4" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="E6" s="4" t="n">
+        <v>20.8</v>
+      </c>
+      <c r="F6" s="4" t="n">
+        <v>16.73</v>
+      </c>
+      <c r="G6" s="4" t="n">
+        <v>7.77</v>
+      </c>
+      <c r="H6" s="4" t="n">
+        <v>27.48</v>
+      </c>
+      <c r="I6" s="4" t="n">
+        <v>11.52</v>
+      </c>
+      <c r="J6" s="4" t="n">
+        <v>5.42</v>
+      </c>
+      <c r="K6" s="4" t="n">
+        <v>7.55</v>
+      </c>
+      <c r="L6" s="4" t="n">
+        <v>8.31</v>
+      </c>
+      <c r="M6" s="4" t="n">
+        <v>8.68</v>
+      </c>
+      <c r="N6" s="4" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="O6" s="4" t="n">
+        <v>7.52</v>
+      </c>
+      <c r="P6" s="4" t="n">
+        <v>10.52</v>
+      </c>
+      <c r="Q6" s="4" t="n">
+        <v>6.35</v>
+      </c>
+      <c r="R6" s="4" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="S6" s="4" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="T6" s="4" t="n">
+        <v>107.38</v>
+      </c>
+      <c r="U6" s="4" t="n">
+        <v>20.98</v>
+      </c>
+      <c r="V6" s="4" t="n">
+        <v>6.94</v>
+      </c>
+      <c r="W6" s="4" t="n">
+        <v>13.97</v>
+      </c>
+      <c r="X6" s="4" t="n">
+        <v>7.58</v>
+      </c>
+      <c r="Y6" s="4" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="Z6" s="4" t="n">
+        <v>14.11</v>
+      </c>
+      <c r="AA6" s="4" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB6" s="4" t="n">
+        <v>5.59</v>
+      </c>
+      <c r="AC6" s="4" t="n">
+        <v>6.57</v>
+      </c>
+      <c r="AD6" s="4" t="n">
+        <v>8.98</v>
+      </c>
+      <c r="AE6" s="4" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="AF6" s="4" t="n">
+        <v>25.07</v>
+      </c>
+      <c r="AG6" s="4" t="n">
+        <v>4.08</v>
+      </c>
+      <c r="AH6" s="4" t="n">
+        <v>8.550000000000001</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_369.xlsx
+++ b/DATA_goal/Junction_Flooding_369.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,21 +443,21 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="7" customWidth="1" min="2" max="2"/>
-    <col width="7" customWidth="1" min="3" max="3"/>
+    <col width="8" customWidth="1" min="2" max="2"/>
+    <col width="8" customWidth="1" min="3" max="3"/>
     <col width="7" customWidth="1" min="4" max="4"/>
     <col width="8" customWidth="1" min="5" max="5"/>
     <col width="8" customWidth="1" min="6" max="6"/>
-    <col width="7" customWidth="1" min="7" max="7"/>
+    <col width="8" customWidth="1" min="7" max="7"/>
     <col width="8" customWidth="1" min="8" max="8"/>
     <col width="8" customWidth="1" min="9" max="9"/>
     <col width="7" customWidth="1" min="10" max="10"/>
-    <col width="7" customWidth="1" min="11" max="11"/>
-    <col width="7" customWidth="1" min="12" max="12"/>
-    <col width="7" customWidth="1" min="13" max="13"/>
+    <col width="8" customWidth="1" min="11" max="11"/>
+    <col width="8" customWidth="1" min="12" max="12"/>
+    <col width="8" customWidth="1" min="13" max="13"/>
     <col width="7" customWidth="1" min="14" max="14"/>
     <col width="7" customWidth="1" min="15" max="15"/>
-    <col width="7" customWidth="1" min="16" max="16"/>
+    <col width="8" customWidth="1" min="16" max="16"/>
     <col width="7" customWidth="1" min="17" max="17"/>
     <col width="7" customWidth="1" min="18" max="18"/>
     <col width="7" customWidth="1" min="19" max="19"/>
@@ -465,17 +465,17 @@
     <col width="8" customWidth="1" min="21" max="21"/>
     <col width="7" customWidth="1" min="22" max="22"/>
     <col width="8" customWidth="1" min="23" max="23"/>
-    <col width="7" customWidth="1" min="24" max="24"/>
+    <col width="8" customWidth="1" min="24" max="24"/>
     <col width="7" customWidth="1" min="25" max="25"/>
     <col width="8" customWidth="1" min="26" max="26"/>
-    <col width="7" customWidth="1" min="27" max="27"/>
-    <col width="7" customWidth="1" min="28" max="28"/>
-    <col width="7" customWidth="1" min="29" max="29"/>
-    <col width="7" customWidth="1" min="30" max="30"/>
+    <col width="8" customWidth="1" min="27" max="27"/>
+    <col width="8" customWidth="1" min="28" max="28"/>
+    <col width="8" customWidth="1" min="29" max="29"/>
+    <col width="8" customWidth="1" min="30" max="30"/>
     <col width="7" customWidth="1" min="31" max="31"/>
     <col width="8" customWidth="1" min="32" max="32"/>
     <col width="7" customWidth="1" min="33" max="33"/>
-    <col width="7" customWidth="1" min="34" max="34"/>
+    <col width="8" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -652,522 +652,418 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>40751.42361111111</v>
+        <v>45050.50694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>7.205</v>
+        <v>22.58</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>5.605</v>
+        <v>15.542</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>1.192</v>
+        <v>4.221</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>15.61</v>
+        <v>47.493</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>12.374</v>
+        <v>39.284</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>4.794</v>
+        <v>17.769</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>14.798</v>
+        <v>58.8</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>8.957000000000001</v>
+        <v>27.341</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>4.429</v>
+        <v>11.61</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>5.631</v>
+        <v>17.881</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>6.249</v>
+        <v>18.828</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>7.306</v>
+        <v>19.728</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>2.788</v>
+        <v>5.673</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>6.015</v>
+        <v>17.67</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>7.738</v>
+        <v>24.849</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>5.138</v>
+        <v>14.79</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>0.492</v>
+        <v>3.779</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>0.931</v>
+        <v>2.46</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>84.14</v>
+        <v>261.617</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>16.424</v>
+        <v>49.202</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>5.552</v>
+        <v>16.31</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>10.174</v>
+        <v>32.642</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>6.283</v>
+        <v>17.025</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>0.894</v>
+        <v>2.109</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>9.741</v>
+        <v>29.266</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>4.361</v>
+        <v>14.407</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>4.885</v>
+        <v>12.944</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>6.06</v>
+        <v>15.145</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>8.134</v>
+        <v>19.485</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>1.522</v>
+        <v>3.64</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>13.18</v>
+        <v>51.902</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>3.625</v>
+        <v>9.071</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>6.387</v>
+        <v>20.391</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>40751.43055555555</v>
+        <v>45050.51388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>9.329000000000001</v>
+        <v>11.53</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>7.061</v>
+        <v>7.975</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0.711</v>
+        <v>1.653</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>20.532</v>
+        <v>24.437</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>16.455</v>
+        <v>20.228</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>6.801</v>
+        <v>9.074</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>26.466</v>
+        <v>37.778</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>11.405</v>
+        <v>13.961</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>5.552</v>
+        <v>5.962</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>7.337</v>
+        <v>9.044</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>8.183</v>
+        <v>9.839</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>9.044</v>
+        <v>10.209</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>2.939</v>
+        <v>2.901</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>7.519</v>
+        <v>9.023</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>10.27</v>
+        <v>12.69</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>6.432</v>
+        <v>7.794</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>0.227</v>
+        <v>1.582</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.632</v>
+        <v>0.916</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>107.111</v>
+        <v>130.032</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>20.992</v>
+        <v>25.348</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>6.941</v>
+        <v>8.329000000000001</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>13.689</v>
+        <v>16.716</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>7.694</v>
+        <v>8.962999999999999</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>1.016</v>
+        <v>1.025</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>14.516</v>
+        <v>17.826</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>5.831</v>
+        <v>7.357</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>5.782</v>
+        <v>6.717</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>6.881</v>
+        <v>7.851</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>9.302</v>
+        <v>10.212</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>0.707</v>
+        <v>1.294</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>24.515</v>
+        <v>34.195</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>4.234</v>
+        <v>4.578</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>8.375</v>
+        <v>10.413</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>40751.4375</v>
+        <v>45050.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>0.284</v>
+        <v>12.491</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>0.229</v>
+        <v>8.930999999999999</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.261</v>
+        <v>1.192</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>0.8129999999999999</v>
+        <v>26.753</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>0</v>
+        <v>22.136</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>0</v>
+        <v>9.83</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>6.559</v>
+        <v>38.568</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>0.411</v>
+        <v>15.125</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>0.714</v>
+        <v>6.58</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>0.053</v>
+        <v>9.897</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>0.261</v>
+        <v>10.818</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>0.051</v>
+        <v>11.258</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>0.017</v>
+        <v>3.14</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>0.376</v>
+        <v>9.775</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>0.425</v>
+        <v>13.807</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>0.477</v>
+        <v>8.375</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.078</v>
+        <v>1.05</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.243</v>
+        <v>0.695</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>0</v>
+        <v>141.456</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>1.569</v>
+        <v>27.338</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>0.347</v>
+        <v>9.023</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>0.9399999999999999</v>
+        <v>18.179</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>0.735</v>
+        <v>9.766999999999999</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>0.063</v>
+        <v>1.154</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>3.789</v>
+        <v>18.432</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>0.101</v>
+        <v>7.97</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>0.599</v>
+        <v>7.183</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>0.702</v>
+        <v>8.417999999999999</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>0.74</v>
+        <v>11.28</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.436</v>
+        <v>0.784</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>6.815</v>
+        <v>34.723</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>0.393</v>
+        <v>5.01</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>0.25</v>
+        <v>11.28</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>40751.44444444445</v>
+        <v>45050.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>6.574</v>
+        <v>14.89</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>4.941</v>
+        <v>10.85</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.404</v>
+        <v>1.06</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>14.481</v>
+        <v>32.08</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>11.424</v>
+        <v>26.54</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>5.463</v>
+        <v>11.72</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>17.617</v>
+        <v>45.27</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>8.009</v>
+        <v>18.03</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>3.837</v>
+        <v>7.94</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>5.174</v>
+        <v>11.89</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>5.759</v>
+        <v>12.97</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>5.946</v>
+        <v>13.55</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>1.605</v>
+        <v>3.74</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>5.263</v>
+        <v>11.65</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>7.182</v>
+        <v>16.53</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>4.502</v>
+        <v>9.890000000000001</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.102</v>
+        <v>0.82</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.369</v>
+        <v>0.66</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>73.175</v>
+        <v>170.07</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>14.498</v>
+        <v>32.58</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>4.858</v>
+        <v>10.76</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>9.475</v>
+        <v>21.81</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>5.326</v>
+        <v>11.65</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.698</v>
+        <v>1.42</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>9.210000000000001</v>
+        <v>21.89</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>4.134</v>
+        <v>9.5</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>4.012</v>
+        <v>8.48</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>4.728</v>
+        <v>9.960000000000001</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>6.387</v>
+        <v>13.56</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.324</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>15.853</v>
+        <v>40.87</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>2.922</v>
+        <v>6.02</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>5.914</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>40751.45137731481</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>9.49</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>7.12</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>0.46</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>20.8</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>16.73</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>7.77</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>27.48</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>11.52</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>5.42</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>7.55</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>8.31</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>8.68</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>2.37</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>7.52</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>10.52</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>6.35</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.42</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>107.38</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>20.98</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>6.94</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>13.97</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>7.58</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>0.99</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>14.11</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>6</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>5.59</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>6.57</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>8.98</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0.26</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>25.07</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>4.08</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>8.550000000000001</v>
+        <v>13.45</v>
       </c>
     </row>
   </sheetData>
